--- a/Unity-Collision-Tests.xlsx
+++ b/Unity-Collision-Tests.xlsx
@@ -4,19 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9825"/>
+    <workbookView windowWidth="16035" windowHeight="7845"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BoxCol" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>tempo ms</t>
+    <t>OnTriggerEnter2D</t>
+  </si>
+  <si>
+    <t>OnTriggerStay2D</t>
+  </si>
+  <si>
+    <t>OnTriggerExit2D</t>
+  </si>
+  <si>
+    <t>OnCollisionEnter2D</t>
+  </si>
+  <si>
+    <t>OnCollisionStay2D</t>
+  </si>
+  <si>
+    <t>OnCollisionExit2D</t>
+  </si>
+  <si>
+    <t>RAM Unity</t>
+  </si>
+  <si>
+    <t>RAM Mono</t>
+  </si>
+  <si>
+    <t>Quadro</t>
+  </si>
+  <si>
+    <t>acaba aqui</t>
   </si>
 </sst>
 </file>
@@ -25,14 +52,113 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -47,7 +173,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,121 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,61 +218,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,121 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,16 +413,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,16 +452,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,16 +496,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,130 +532,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,17 +982,806 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="18.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="17.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="9.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="15.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>137.1</v>
+      </c>
+      <c r="K3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <v>137.1</v>
+      </c>
+      <c r="K4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <v>137.9</v>
+      </c>
+      <c r="K5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <v>137.3</v>
+      </c>
+      <c r="K6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>137.3</v>
+      </c>
+      <c r="K7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <v>137.3</v>
+      </c>
+      <c r="K8">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <v>137.3</v>
+      </c>
+      <c r="K9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <v>137.3</v>
+      </c>
+      <c r="K10">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <v>137.3</v>
+      </c>
+      <c r="K11">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.44</v>
+      </c>
+      <c r="C12"/>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>137.2</v>
+      </c>
+      <c r="K12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="J13">
+        <v>137.2</v>
+      </c>
+      <c r="K13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>137.9</v>
+      </c>
+      <c r="K14">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>138.7</v>
+      </c>
+      <c r="K15">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>138.6</v>
+      </c>
+      <c r="K16">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>138.5</v>
+      </c>
+      <c r="K17">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>138.5</v>
+      </c>
+      <c r="K18">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>138.5</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>138.5</v>
+      </c>
+      <c r="K20">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>138.3</v>
+      </c>
+      <c r="K21">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>138.3</v>
+      </c>
+      <c r="K22">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>138.3</v>
+      </c>
+      <c r="K23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>138.3</v>
+      </c>
+      <c r="K24">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>138.3</v>
+      </c>
+      <c r="K25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>138.3</v>
+      </c>
+      <c r="K26">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>138.1</v>
+      </c>
+      <c r="K27">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="J28">
+        <v>138</v>
+      </c>
+      <c r="K28">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>139.1</v>
+      </c>
+      <c r="K29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>138.2</v>
+      </c>
+      <c r="K30">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>138.2</v>
+      </c>
+      <c r="K31">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>138.2</v>
+      </c>
+      <c r="K32">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33"/>
+      <c r="J33">
+        <v>138.2</v>
+      </c>
+      <c r="K33">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34"/>
+      <c r="J34">
+        <v>138.2</v>
+      </c>
+      <c r="K34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35"/>
+      <c r="J35">
+        <v>138.1</v>
+      </c>
+      <c r="K35">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36"/>
+      <c r="J36">
+        <v>138</v>
+      </c>
+      <c r="K36">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37"/>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>138</v>
+      </c>
+      <c r="K37">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38">
+        <v>0.18</v>
+      </c>
+      <c r="J38">
+        <v>138</v>
+      </c>
+      <c r="K38">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39">
+        <v>138</v>
+      </c>
+      <c r="K39">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40">
+        <v>138.2</v>
+      </c>
+      <c r="K40">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="E41">
+        <v>0.11</v>
+      </c>
+      <c r="F41">
+        <v>0.08</v>
+      </c>
+      <c r="J41">
+        <v>138.2</v>
+      </c>
+      <c r="K41">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>138.9</v>
+      </c>
+      <c r="K42">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>138.6</v>
+      </c>
+      <c r="K43">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>138.4</v>
+      </c>
+      <c r="K44">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>138.4</v>
+      </c>
+      <c r="K45">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>138.4</v>
+      </c>
+      <c r="K46">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>139.6</v>
+      </c>
+      <c r="K47">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>139.6</v>
+      </c>
+      <c r="K48">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>138.2</v>
+      </c>
+      <c r="K49">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>138.2</v>
+      </c>
+      <c r="K50">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>138.2</v>
+      </c>
+      <c r="K51">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>138.2</v>
+      </c>
+      <c r="K52">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11">
+      <c r="F53">
+        <v>0.01</v>
+      </c>
+      <c r="J53">
+        <v>138</v>
+      </c>
+      <c r="K53">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>138</v>
+      </c>
+      <c r="K54">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>138</v>
+      </c>
+      <c r="K55">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>138.3</v>
+      </c>
+      <c r="K56">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <v>138.3</v>
+      </c>
+      <c r="K57">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>138.3</v>
+      </c>
+      <c r="K58">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>138.3</v>
+      </c>
+      <c r="K59">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>138.3</v>
+      </c>
+      <c r="K60">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>138.3</v>
+      </c>
+      <c r="K61">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>138.1</v>
+      </c>
+      <c r="K62">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>138.1</v>
+      </c>
+      <c r="K63">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
